--- a/static/Output Data Structure.xlsx
+++ b/static/Output Data Structure.xlsx
@@ -470,43 +470,43 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.8636840023288044</v>
+        <v>0.8319484484629328</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.8636840023288044</v>
+        <v>-0.8319484484629328</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1363159976711956</v>
+        <v>0.1680515515370672</v>
       </c>
       <c r="F2" t="n">
-        <v>0.5214272526153716</v>
+        <v>0.5212798201472361</v>
       </c>
       <c r="G2" t="n">
-        <v>92.37457044673539</v>
+        <v>85.15737298636927</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1854838709677419</v>
+        <v>0.1786113118307824</v>
       </c>
       <c r="I2" t="n">
-        <v>9.635162398847136</v>
+        <v>14.6899295488199</v>
       </c>
       <c r="J2" t="n">
-        <v>5.539518900343642</v>
+        <v>18.8636926889715</v>
       </c>
       <c r="K2" t="n">
-        <v>299</v>
+        <v>2719</v>
       </c>
       <c r="L2" t="n">
-        <v>1612</v>
+        <v>15223</v>
       </c>
       <c r="M2" t="n">
-        <v>5.372208436724565</v>
+        <v>1.467779018590291</v>
       </c>
       <c r="N2" t="n">
-        <v>114</v>
+        <v>1042</v>
       </c>
       <c r="O2" t="n">
-        <v>16.67555831265509</v>
+        <v>4.514353281219208</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1" s="3">
@@ -519,43 +519,43 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.8716230848399966</v>
+        <v>0.8305385661069942</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.8716230848399966</v>
+        <v>-0.8305385661069942</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1283769151600034</v>
+        <v>0.1694614338930058</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5714073508191154</v>
+        <v>0.5013122369124255</v>
       </c>
       <c r="G3" t="n">
-        <v>86.52173913043478</v>
+        <v>79.16797312430012</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1921728971962617</v>
+        <v>0.178129829984544</v>
       </c>
       <c r="I3" t="n">
-        <v>9.81362396238463</v>
+        <v>14.0806243304008</v>
       </c>
       <c r="J3" t="n">
-        <v>5.316770186335404</v>
+        <v>17.38857782754759</v>
       </c>
       <c r="K3" t="n">
-        <v>329</v>
+        <v>2766</v>
       </c>
       <c r="L3" t="n">
-        <v>1712</v>
+        <v>15528</v>
       </c>
       <c r="M3" t="n">
-        <v>5.293808411214953</v>
+        <v>1.469860896445131</v>
       </c>
       <c r="N3" t="n">
-        <v>118</v>
+        <v>990</v>
       </c>
       <c r="O3" t="n">
-        <v>16.27336448598131</v>
+        <v>4.552872230808862</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1" s="3">
@@ -568,43 +568,43 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.8223041839113268</v>
+        <v>0.8541135566703545</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.8223041839113268</v>
+        <v>-0.8541135566703545</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1776958160886732</v>
+        <v>0.1458864433296455</v>
       </c>
       <c r="F4" t="n">
-        <v>0.4575127253698685</v>
+        <v>0.4986744013755509</v>
       </c>
       <c r="G4" t="n">
-        <v>73.02666666666667</v>
+        <v>77.70666666666666</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1796331435800126</v>
+        <v>0.1816771190276072</v>
       </c>
       <c r="I4" t="n">
-        <v>8.871725743200505</v>
+        <v>14.14130698332651</v>
       </c>
       <c r="J4" t="n">
-        <v>4.216</v>
+        <v>17.18555555555556</v>
       </c>
       <c r="K4" t="n">
-        <v>284</v>
+        <v>2810</v>
       </c>
       <c r="L4" t="n">
-        <v>1581</v>
+        <v>15467</v>
       </c>
       <c r="M4" t="n">
-        <v>5.607210626185958</v>
+        <v>1.476304389991595</v>
       </c>
       <c r="N4" t="n">
-        <v>107</v>
+        <v>1038</v>
       </c>
       <c r="O4" t="n">
-        <v>17.3213156230234</v>
+        <v>4.521626689079977</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1" s="3">
@@ -617,43 +617,43 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.7609066931332555</v>
+        <v>0.8439873300511774</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.7609066931332555</v>
+        <v>-0.8439873300511774</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2390933068667444</v>
+        <v>0.1560126699488226</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5466880341880342</v>
+        <v>0.5093885889050123</v>
       </c>
       <c r="G5" t="n">
-        <v>79.09999999999999</v>
+        <v>75.47165775401069</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1816598955310505</v>
+        <v>0.1840178287169691</v>
       </c>
       <c r="I5" t="n">
-        <v>9.129098523944723</v>
+        <v>14.07942972621887</v>
       </c>
       <c r="J5" t="n">
-        <v>4.656756756756756</v>
+        <v>16.79679144385027</v>
       </c>
       <c r="K5" t="n">
-        <v>313</v>
+        <v>2890</v>
       </c>
       <c r="L5" t="n">
-        <v>1723</v>
+        <v>15705</v>
       </c>
       <c r="M5" t="n">
-        <v>5.387695879280325</v>
+        <v>1.454059216809933</v>
       </c>
       <c r="N5" t="n">
-        <v>136</v>
+        <v>1100</v>
       </c>
       <c r="O5" t="n">
-        <v>16.98607080673244</v>
+        <v>4.493218720152818</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1" s="3">
@@ -666,43 +666,43 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.8022344746303079</v>
+        <v>0.8317650393395242</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.8022344746303079</v>
+        <v>-0.8317650393395242</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1977655253696921</v>
+        <v>0.1682349606604758</v>
       </c>
       <c r="F6" t="n">
-        <v>0.5110805860805863</v>
+        <v>0.5270480148129298</v>
       </c>
       <c r="G6" t="n">
-        <v>84.65432098765432</v>
+        <v>78.80983606557378</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1775827143821742</v>
+        <v>0.1826026267368822</v>
       </c>
       <c r="I6" t="n">
-        <v>8.931703637015364</v>
+        <v>14.19415971428403</v>
       </c>
       <c r="J6" t="n">
-        <v>4.570987654320987</v>
+        <v>17.22513661202186</v>
       </c>
       <c r="K6" t="n">
-        <v>263</v>
+        <v>2878</v>
       </c>
       <c r="L6" t="n">
-        <v>1481</v>
+        <v>15761</v>
       </c>
       <c r="M6" t="n">
-        <v>5.87711006076975</v>
+        <v>1.500983440137047</v>
       </c>
       <c r="N6" t="n">
-        <v>126</v>
+        <v>1057</v>
       </c>
       <c r="O6" t="n">
-        <v>18.51991897366644</v>
+        <v>4.57528075629719</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1" s="3">
@@ -715,43 +715,43 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.7390689534742468</v>
+        <v>0.8416720613152979</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.7390689534742468</v>
+        <v>-0.8416720613152979</v>
       </c>
       <c r="E7" t="n">
-        <v>0.2609310465257532</v>
+        <v>0.158327938684702</v>
       </c>
       <c r="F7" t="n">
-        <v>0.5057559928733399</v>
+        <v>0.4978082013988527</v>
       </c>
       <c r="G7" t="n">
-        <v>87.3538961038961</v>
+        <v>76.68884120171674</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1474747474747475</v>
+        <v>0.1794445155510047</v>
       </c>
       <c r="I7" t="n">
-        <v>7.827561327561327</v>
+        <v>13.88421839028054</v>
       </c>
       <c r="J7" t="n">
-        <v>4.821428571428571</v>
+        <v>16.76609442060086</v>
       </c>
       <c r="K7" t="n">
-        <v>219</v>
+        <v>2804</v>
       </c>
       <c r="L7" t="n">
-        <v>1485</v>
+        <v>15626</v>
       </c>
       <c r="M7" t="n">
-        <v>5.766329966329966</v>
+        <v>1.506527582234737</v>
       </c>
       <c r="N7" t="n">
-        <v>110</v>
+        <v>1087</v>
       </c>
       <c r="O7" t="n">
-        <v>18.11784511784512</v>
+        <v>4.574043261231282</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1" s="3">
@@ -764,43 +764,43 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.8092973842890143</v>
+        <v>0.840537259935876</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.8092973842890143</v>
+        <v>-0.840537259935876</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1907026157109856</v>
+        <v>0.159462740064124</v>
       </c>
       <c r="F8" t="n">
-        <v>0.5467550151373682</v>
+        <v>0.5120338710227905</v>
       </c>
       <c r="G8" t="n">
-        <v>83.45714285714286</v>
+        <v>79.04396843291995</v>
       </c>
       <c r="H8" t="n">
-        <v>0.191875</v>
+        <v>0.177704621740253</v>
       </c>
       <c r="I8" t="n">
-        <v>9.503571428571428</v>
+        <v>14.09443064187619</v>
       </c>
       <c r="J8" t="n">
-        <v>4.571428571428571</v>
+        <v>17.46561443066516</v>
       </c>
       <c r="K8" t="n">
-        <v>307</v>
+        <v>2753</v>
       </c>
       <c r="L8" t="n">
-        <v>1600</v>
+        <v>15492</v>
       </c>
       <c r="M8" t="n">
-        <v>5.901875</v>
+        <v>1.482700748773561</v>
       </c>
       <c r="N8" t="n">
-        <v>138</v>
+        <v>1088</v>
       </c>
       <c r="O8" t="n">
-        <v>18.25625</v>
+        <v>4.52569067906016</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1" s="3"/>

--- a/static/Output Data Structure.xlsx
+++ b/static/Output Data Structure.xlsx
@@ -470,43 +470,43 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.8319484484629328</v>
+        <v>0.8440537397595355</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.8319484484629328</v>
+        <v>-0.8440537397595355</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1680515515370672</v>
+        <v>0.1559462602404645</v>
       </c>
       <c r="F2" t="n">
-        <v>0.5212798201472361</v>
+        <v>0.522643293630862</v>
       </c>
       <c r="G2" t="n">
-        <v>85.15737298636927</v>
+        <v>86.21539871677361</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1786113118307824</v>
+        <v>0.1916189111747851</v>
       </c>
       <c r="I2" t="n">
-        <v>14.6899295488199</v>
+        <v>9.712052505653183</v>
       </c>
       <c r="J2" t="n">
-        <v>18.8636926889715</v>
+        <v>5.118240146654445</v>
       </c>
       <c r="K2" t="n">
-        <v>2719</v>
+        <v>1070</v>
       </c>
       <c r="L2" t="n">
-        <v>15223</v>
+        <v>5584</v>
       </c>
       <c r="M2" t="n">
-        <v>1.467779018590291</v>
+        <v>5.543696275071634</v>
       </c>
       <c r="N2" t="n">
-        <v>1042</v>
+        <v>504</v>
       </c>
       <c r="O2" t="n">
-        <v>4.514353281219208</v>
+        <v>16.84473495702006</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1" s="3">
@@ -519,43 +519,43 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.8305385661069942</v>
+        <v>0.826194611879321</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.8305385661069942</v>
+        <v>-0.826194611879321</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1694614338930058</v>
+        <v>0.173805388120679</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5013122369124255</v>
+        <v>0.5022387551164533</v>
       </c>
       <c r="G3" t="n">
-        <v>79.16797312430012</v>
+        <v>86.52572898799313</v>
       </c>
       <c r="H3" t="n">
-        <v>0.178129829984544</v>
+        <v>0.2172835682205358</v>
       </c>
       <c r="I3" t="n">
-        <v>14.0806243304008</v>
+        <v>10.90643706844408</v>
       </c>
       <c r="J3" t="n">
-        <v>17.38857782754759</v>
+        <v>5.537735849056604</v>
       </c>
       <c r="K3" t="n">
-        <v>2766</v>
+        <v>1403</v>
       </c>
       <c r="L3" t="n">
-        <v>15528</v>
+        <v>6457</v>
       </c>
       <c r="M3" t="n">
-        <v>1.469860896445131</v>
+        <v>5.125909865262506</v>
       </c>
       <c r="N3" t="n">
-        <v>990</v>
+        <v>610</v>
       </c>
       <c r="O3" t="n">
-        <v>4.552872230808862</v>
+        <v>15.62474833514016</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1" s="3">
@@ -568,43 +568,43 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.8541135566703545</v>
+        <v>0.8868284865966249</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.8541135566703545</v>
+        <v>-0.8868284865966249</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1458864433296455</v>
+        <v>0.1131715134033751</v>
       </c>
       <c r="F4" t="n">
-        <v>0.4986744013755509</v>
+        <v>0.4895447968772366</v>
       </c>
       <c r="G4" t="n">
-        <v>77.70666666666666</v>
+        <v>84.04611211573237</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1816771190276072</v>
+        <v>0.2103572862304295</v>
       </c>
       <c r="I4" t="n">
-        <v>14.14130698332651</v>
+        <v>10.2160997674812</v>
       </c>
       <c r="J4" t="n">
-        <v>17.18555555555556</v>
+        <v>4.504520795660036</v>
       </c>
       <c r="K4" t="n">
-        <v>2810</v>
+        <v>1048</v>
       </c>
       <c r="L4" t="n">
-        <v>15467</v>
+        <v>4982</v>
       </c>
       <c r="M4" t="n">
-        <v>1.476304389991595</v>
+        <v>6.144921718185468</v>
       </c>
       <c r="N4" t="n">
-        <v>1038</v>
+        <v>503</v>
       </c>
       <c r="O4" t="n">
-        <v>4.521626689079977</v>
+        <v>18.65816940987555</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1" s="3">
@@ -617,43 +617,43 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.8439873300511774</v>
+        <v>0.9025212673552517</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.8439873300511774</v>
+        <v>-0.9025212673552517</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1560126699488226</v>
+        <v>0.09747873264474824</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5093885889050123</v>
+        <v>0.4370136020136023</v>
       </c>
       <c r="G5" t="n">
-        <v>75.47165775401069</v>
+        <v>79.58458813108946</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1840178287169691</v>
+        <v>0.2094793713163065</v>
       </c>
       <c r="I5" t="n">
-        <v>14.07942972621887</v>
+        <v>9.821867501013642</v>
       </c>
       <c r="J5" t="n">
-        <v>16.79679144385027</v>
+        <v>3.606731620903454</v>
       </c>
       <c r="K5" t="n">
-        <v>2890</v>
+        <v>853</v>
       </c>
       <c r="L5" t="n">
-        <v>15705</v>
+        <v>4072</v>
       </c>
       <c r="M5" t="n">
-        <v>1.454059216809933</v>
+        <v>7.176571709233792</v>
       </c>
       <c r="N5" t="n">
-        <v>1100</v>
+        <v>459</v>
       </c>
       <c r="O5" t="n">
-        <v>4.493218720152818</v>
+        <v>22.06556974459725</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1" s="3">

--- a/static/Output Data Structure.xlsx
+++ b/static/Output Data Structure.xlsx
@@ -466,47 +466,47 @@
       </c>
       <c r="B2" s="4" t="inlineStr">
         <is>
-          <t>InfrastructureEnhancement</t>
+          <t>CryptoAssets</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.8440537397595355</v>
+        <v>0.7239583333333334</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.8440537397595355</v>
+        <v>-0.7239583333333334</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1559462602404645</v>
+        <v>0.2760416666666666</v>
       </c>
       <c r="F2" t="n">
-        <v>0.522643293630862</v>
+        <v>0.8976190476190476</v>
       </c>
       <c r="G2" t="n">
-        <v>86.21539871677361</v>
+        <v>80.30178173719376</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1916189111747851</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>9.712052505653183</v>
+        <v>0.00044543429844098</v>
       </c>
       <c r="J2" t="n">
-        <v>5.118240146654445</v>
+        <v>0.00111358574610245</v>
       </c>
       <c r="K2" t="n">
-        <v>1070</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>5584</v>
+        <v>1</v>
       </c>
       <c r="M2" t="n">
-        <v>5.543696275071634</v>
+        <v>23657</v>
       </c>
       <c r="N2" t="n">
-        <v>504</v>
+        <v>101</v>
       </c>
       <c r="O2" t="n">
-        <v>16.84473495702006</v>
+        <v>72111</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1" s="3">
@@ -515,47 +515,47 @@
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t>NationalTeleMedicineProgramme</t>
+          <t>DigitalInfrasturcture</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.826194611879321</v>
+        <v>-0.862795928030303</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.826194611879321</v>
+        <v>0.862795928030303</v>
       </c>
       <c r="E3" t="n">
-        <v>0.173805388120679</v>
+        <v>-0.137204071969697</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5022387551164533</v>
+        <v>0.6601082251082251</v>
       </c>
       <c r="G3" t="n">
-        <v>86.52572898799313</v>
+        <v>102.6297777777778</v>
       </c>
       <c r="H3" t="n">
-        <v>0.2172835682205358</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>10.90643706844408</v>
+        <v>0.0001777777777777778</v>
       </c>
       <c r="J3" t="n">
-        <v>5.537735849056604</v>
+        <v>0.0004444444444444445</v>
       </c>
       <c r="K3" t="n">
-        <v>1403</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>6457</v>
+        <v>1</v>
       </c>
       <c r="M3" t="n">
-        <v>5.125909865262506</v>
+        <v>77772</v>
       </c>
       <c r="N3" t="n">
-        <v>610</v>
+        <v>323</v>
       </c>
       <c r="O3" t="n">
-        <v>15.62474833514016</v>
+        <v>230917</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1" s="3">
@@ -564,47 +564,47 @@
       </c>
       <c r="B4" s="4" t="inlineStr">
         <is>
-          <t>DigitalInfrasturcture</t>
+          <t>DirectTax</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.8868284865966249</v>
+        <v>0.6666666666666667</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.8868284865966249</v>
+        <v>-0.6666666666666667</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1131715134033751</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="F4" t="n">
-        <v>0.4895447968772366</v>
+        <v>0.9</v>
       </c>
       <c r="G4" t="n">
-        <v>84.04611211573237</v>
+        <v>109.5950920245399</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2103572862304295</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>10.2160997674812</v>
+        <v>0.0003067484662576687</v>
       </c>
       <c r="J4" t="n">
-        <v>4.504520795660036</v>
+        <v>0.0007668711656441718</v>
       </c>
       <c r="K4" t="n">
-        <v>1048</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>4982</v>
+        <v>1</v>
       </c>
       <c r="M4" t="n">
-        <v>6.144921718185468</v>
+        <v>47642</v>
       </c>
       <c r="N4" t="n">
-        <v>503</v>
+        <v>217</v>
       </c>
       <c r="O4" t="n">
-        <v>18.65816940987555</v>
+        <v>142912</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1" s="3">
@@ -613,47 +613,47 @@
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t>Sustainability</t>
+          <t>Indirecttax</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.9025212673552517</v>
+        <v>-0.925</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.9025212673552517</v>
+        <v>0.925</v>
       </c>
       <c r="E5" t="n">
-        <v>0.09747873264474824</v>
+        <v>-0.075</v>
       </c>
       <c r="F5" t="n">
-        <v>0.4370136020136023</v>
+        <v>0.595</v>
       </c>
       <c r="G5" t="n">
-        <v>79.58458813108946</v>
+        <v>70.48431734317343</v>
       </c>
       <c r="H5" t="n">
-        <v>0.2094793713163065</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>9.821867501013642</v>
+        <v>0.0001845018450184502</v>
       </c>
       <c r="J5" t="n">
-        <v>3.606731620903454</v>
+        <v>0.0004612546125461254</v>
       </c>
       <c r="K5" t="n">
-        <v>853</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>4072</v>
+        <v>1</v>
       </c>
       <c r="M5" t="n">
-        <v>7.176571709233792</v>
+        <v>51516</v>
       </c>
       <c r="N5" t="n">
-        <v>459</v>
+        <v>209</v>
       </c>
       <c r="O5" t="n">
-        <v>22.06556974459725</v>
+        <v>152810</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1" s="3">
@@ -662,47 +662,47 @@
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t>CryptoAssets</t>
+          <t>InfrastructureEnhancement</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.8317650393395242</v>
+        <v>0.7073495370370371</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.8317650393395242</v>
+        <v>-0.7073495370370371</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1682349606604758</v>
+        <v>0.292650462962963</v>
       </c>
       <c r="F6" t="n">
-        <v>0.5270480148129298</v>
+        <v>0.7999999999999999</v>
       </c>
       <c r="G6" t="n">
-        <v>78.80983606557378</v>
+        <v>69.38400870274681</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1826026267368822</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>14.19415971428403</v>
+        <v>0.000108784335055752</v>
       </c>
       <c r="J6" t="n">
-        <v>17.22513661202186</v>
+        <v>0.0002719608376393799</v>
       </c>
       <c r="K6" t="n">
-        <v>2878</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>15761</v>
+        <v>1</v>
       </c>
       <c r="M6" t="n">
-        <v>1.500983440137047</v>
+        <v>87618</v>
       </c>
       <c r="N6" t="n">
-        <v>1057</v>
+        <v>295</v>
       </c>
       <c r="O6" t="n">
-        <v>4.57528075629719</v>
+        <v>255125</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1" s="3">
@@ -711,47 +711,47 @@
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t>DirectTax</t>
+          <t>NationalTeleMedicineProgramme</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.8416720613152979</v>
+        <v>0.5562581380208333</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.8416720613152979</v>
+        <v>-0.5562581380208333</v>
       </c>
       <c r="E7" t="n">
-        <v>0.158327938684702</v>
+        <v>0.4437418619791667</v>
       </c>
       <c r="F7" t="n">
-        <v>0.4978082013988527</v>
+        <v>0.6506944444444445</v>
       </c>
       <c r="G7" t="n">
-        <v>76.68884120171674</v>
+        <v>100.6125967628431</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1794445155510047</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>13.88421839028054</v>
+        <v>0.0001407459535538353</v>
       </c>
       <c r="J7" t="n">
-        <v>16.76609442060086</v>
+        <v>0.0003518648838845883</v>
       </c>
       <c r="K7" t="n">
-        <v>2804</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>15626</v>
+        <v>1</v>
       </c>
       <c r="M7" t="n">
-        <v>1.506527582234737</v>
+        <v>97082</v>
       </c>
       <c r="N7" t="n">
-        <v>1087</v>
+        <v>503</v>
       </c>
       <c r="O7" t="n">
-        <v>4.574043261231282</v>
+        <v>285941</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1" s="3">
@@ -760,47 +760,47 @@
       </c>
       <c r="B8" s="4" t="inlineStr">
         <is>
-          <t>Indirecttax</t>
+          <t>Sustainability</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.840537259935876</v>
+        <v>0.8375</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.840537259935876</v>
+        <v>-0.8375</v>
       </c>
       <c r="E8" t="n">
-        <v>0.159462740064124</v>
+        <v>0.1625</v>
       </c>
       <c r="F8" t="n">
-        <v>0.5120338710227905</v>
+        <v>0.4958333333333332</v>
       </c>
       <c r="G8" t="n">
-        <v>79.04396843291995</v>
+        <v>78.21404193076548</v>
       </c>
       <c r="H8" t="n">
-        <v>0.177704621740253</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>14.09443064187619</v>
+        <v>0.0001950268161872257</v>
       </c>
       <c r="J8" t="n">
-        <v>17.46561443066516</v>
+        <v>0.0004875670404680643</v>
       </c>
       <c r="K8" t="n">
-        <v>2753</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>15492</v>
+        <v>1</v>
       </c>
       <c r="M8" t="n">
-        <v>1.482700748773561</v>
+        <v>52059</v>
       </c>
       <c r="N8" t="n">
-        <v>1088</v>
+        <v>287</v>
       </c>
       <c r="O8" t="n">
-        <v>4.52569067906016</v>
+        <v>160417</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1" s="3"/>

--- a/static/Output Data Structure.xlsx
+++ b/static/Output Data Structure.xlsx
@@ -470,43 +470,43 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.7239583333333334</v>
+        <v>0.9921245120820545</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.7239583333333334</v>
+        <v>-0.9921245120820545</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2760416666666666</v>
+        <v>0.007875487917945496</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8976190476190476</v>
+        <v>0.8255952380952382</v>
       </c>
       <c r="G2" t="n">
-        <v>80.30178173719376</v>
+        <v>93.5673616680032</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>0.1914022799066062</v>
       </c>
       <c r="I2" t="n">
-        <v>0.00044543429844098</v>
+        <v>13.494904347828</v>
       </c>
       <c r="J2" t="n">
-        <v>0.00111358574610245</v>
+        <v>14.59703287890938</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>6968</v>
       </c>
       <c r="L2" t="n">
-        <v>1</v>
+        <v>36405</v>
       </c>
       <c r="M2" t="n">
-        <v>23657</v>
+        <v>2.118280455981321</v>
       </c>
       <c r="N2" t="n">
-        <v>101</v>
+        <v>331</v>
       </c>
       <c r="O2" t="n">
-        <v>72111</v>
+        <v>6.410026095316577</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1" s="3">
@@ -519,43 +519,43 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-0.862795928030303</v>
+        <v>0.8212594696969697</v>
       </c>
       <c r="D3" t="n">
-        <v>0.862795928030303</v>
+        <v>-0.8212594696969697</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.137204071969697</v>
+        <v>0.1787405303030303</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6601082251082251</v>
+        <v>0.7143475572047</v>
       </c>
       <c r="G3" t="n">
-        <v>102.6297777777778</v>
+        <v>98.46698012395811</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>0.189599533437014</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0001777777777777778</v>
+        <v>11.98150217526641</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0004444444444444445</v>
+        <v>10.99380209446463</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>9753</v>
       </c>
       <c r="L3" t="n">
-        <v>1</v>
+        <v>51440</v>
       </c>
       <c r="M3" t="n">
-        <v>77772</v>
+        <v>3.011314152410575</v>
       </c>
       <c r="N3" t="n">
-        <v>323</v>
+        <v>694</v>
       </c>
       <c r="O3" t="n">
-        <v>230917</v>
+        <v>8.956590202177294</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1" s="3">
@@ -568,43 +568,43 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.6666666666666667</v>
+        <v>-0.9826604669744318</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.6666666666666667</v>
+        <v>0.9826604669744318</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3333333333333333</v>
+        <v>-0.01733953302556818</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="G4" t="n">
-        <v>109.5950920245399</v>
+        <v>102.4327761627907</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>0.1810809057289301</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0003067484662576687</v>
+        <v>11.72375948497116</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0007668711656441718</v>
+        <v>11.20130813953488</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>5582</v>
       </c>
       <c r="L4" t="n">
-        <v>1</v>
+        <v>30826</v>
       </c>
       <c r="M4" t="n">
-        <v>47642</v>
+        <v>3.036689807305522</v>
       </c>
       <c r="N4" t="n">
-        <v>217</v>
+        <v>407</v>
       </c>
       <c r="O4" t="n">
-        <v>142912</v>
+        <v>9.144715499902679</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1" s="3">
@@ -617,43 +617,43 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-0.925</v>
+        <v>-0.84375</v>
       </c>
       <c r="D5" t="n">
-        <v>0.925</v>
+        <v>0.84375</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.075</v>
+        <v>-0.15625</v>
       </c>
       <c r="F5" t="n">
-        <v>0.595</v>
+        <v>0.6606666666666667</v>
       </c>
       <c r="G5" t="n">
-        <v>70.48431734317343</v>
+        <v>82.36536402569592</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>0.1838370834186734</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0001845018450184502</v>
+        <v>11.01269104552638</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0004612546125461254</v>
+        <v>9.148019271948607</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>6283</v>
       </c>
       <c r="L5" t="n">
-        <v>1</v>
+        <v>34177</v>
       </c>
       <c r="M5" t="n">
-        <v>51516</v>
+        <v>3.013605641220704</v>
       </c>
       <c r="N5" t="n">
-        <v>209</v>
+        <v>457</v>
       </c>
       <c r="O5" t="n">
-        <v>152810</v>
+        <v>9.003628170992188</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1" s="3">
@@ -666,43 +666,43 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.7073495370370371</v>
+        <v>0.7906521607078982</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.7073495370370371</v>
+        <v>-0.7906521607078982</v>
       </c>
       <c r="E6" t="n">
-        <v>0.292650462962963</v>
+        <v>0.2093478392921017</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7999999999999999</v>
+        <v>0.6956810631229234</v>
       </c>
       <c r="G6" t="n">
-        <v>69.38400870274681</v>
+        <v>78.23710534542045</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>0.1905670765278033</v>
       </c>
       <c r="I6" t="n">
-        <v>0.000108784335055752</v>
+        <v>11.02937265160916</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0002719608376393799</v>
+        <v>8.516723976242575</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>10384</v>
       </c>
       <c r="L6" t="n">
-        <v>1</v>
+        <v>54490</v>
       </c>
       <c r="M6" t="n">
-        <v>87618</v>
+        <v>3.118535511102955</v>
       </c>
       <c r="N6" t="n">
-        <v>295</v>
+        <v>676</v>
       </c>
       <c r="O6" t="n">
-        <v>255125</v>
+        <v>9.18629106258029</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1" s="3">
@@ -715,43 +715,43 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.5562581380208333</v>
+        <v>0.8196852463942308</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.5562581380208333</v>
+        <v>-0.8196852463942308</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4437418619791667</v>
+        <v>0.1803147536057692</v>
       </c>
       <c r="F7" t="n">
-        <v>0.6506944444444445</v>
+        <v>0.706533530571992</v>
       </c>
       <c r="G7" t="n">
-        <v>100.6125967628431</v>
+        <v>98.7172802536551</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>0.1879925747410929</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0001407459535538353</v>
+        <v>11.84677714853045</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0003518648838845883</v>
+        <v>10.81768539721684</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>11545</v>
       </c>
       <c r="L7" t="n">
-        <v>1</v>
+        <v>61412</v>
       </c>
       <c r="M7" t="n">
-        <v>97082</v>
+        <v>3.088272650296359</v>
       </c>
       <c r="N7" t="n">
-        <v>503</v>
+        <v>960</v>
       </c>
       <c r="O7" t="n">
-        <v>285941</v>
+        <v>9.125545495994269</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1" s="3">
@@ -764,43 +764,43 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.8375</v>
+        <v>0.963265306122449</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.8375</v>
+        <v>-0.963265306122449</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1625</v>
+        <v>0.03673469387755102</v>
       </c>
       <c r="F8" t="n">
-        <v>0.4958333333333332</v>
+        <v>0.6184353741496599</v>
       </c>
       <c r="G8" t="n">
-        <v>78.21404193076548</v>
+        <v>88.80802977931401</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>0.1917676924671018</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0001950268161872257</v>
+        <v>11.77642426342749</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0004875670404680643</v>
+        <v>10.26429141185855</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>7403</v>
       </c>
       <c r="L8" t="n">
-        <v>1</v>
+        <v>38604</v>
       </c>
       <c r="M8" t="n">
-        <v>52059</v>
+        <v>2.859056056367216</v>
       </c>
       <c r="N8" t="n">
-        <v>287</v>
+        <v>542</v>
       </c>
       <c r="O8" t="n">
-        <v>160417</v>
+        <v>8.652134493834836</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1" s="3"/>

--- a/static/Output Data Structure.xlsx
+++ b/static/Output Data Structure.xlsx
@@ -470,43 +470,43 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.9921245120820545</v>
+        <v>0.8758672452440449</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.9921245120820545</v>
+        <v>-0.8758672452440449</v>
       </c>
       <c r="E2" t="n">
-        <v>0.007875487917945496</v>
+        <v>0.1241327547559551</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8255952380952382</v>
+        <v>0.8122549019607843</v>
       </c>
       <c r="G2" t="n">
-        <v>93.5673616680032</v>
+        <v>97.77599808749702</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1914022799066062</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>13.494904347828</v>
+        <v>9.562514941429597e-05</v>
       </c>
       <c r="J2" t="n">
-        <v>14.59703287890938</v>
+        <v>0.0002390628735357399</v>
       </c>
       <c r="K2" t="n">
-        <v>6968</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>36405</v>
+        <v>1</v>
       </c>
       <c r="M2" t="n">
-        <v>2.118280455981321</v>
+        <v>136357</v>
       </c>
       <c r="N2" t="n">
-        <v>331</v>
+        <v>615</v>
       </c>
       <c r="O2" t="n">
-        <v>6.410026095316577</v>
+        <v>408997</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1" s="3">
@@ -519,43 +519,43 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.8212594696969697</v>
+        <v>0.7485442859445519</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.8212594696969697</v>
+        <v>-0.7485442859445519</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1787405303030303</v>
+        <v>0.2514557140554481</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7143475572047</v>
+        <v>0.681748180897117</v>
       </c>
       <c r="G3" t="n">
-        <v>98.46698012395811</v>
+        <v>98.74235195060342</v>
       </c>
       <c r="H3" t="n">
-        <v>0.189599533437014</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>11.98150217526641</v>
+        <v>5.61324726354196e-05</v>
       </c>
       <c r="J3" t="n">
-        <v>10.99380209446463</v>
+        <v>0.000140331181588549</v>
       </c>
       <c r="K3" t="n">
-        <v>9753</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>51440</v>
+        <v>1</v>
       </c>
       <c r="M3" t="n">
-        <v>3.011314152410575</v>
+        <v>237428</v>
       </c>
       <c r="N3" t="n">
-        <v>694</v>
+        <v>1096</v>
       </c>
       <c r="O3" t="n">
-        <v>8.956590202177294</v>
+        <v>703638</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1" s="3">
@@ -568,43 +568,43 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-0.9826604669744318</v>
+        <v>0.6505592557281374</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9826604669744318</v>
+        <v>-0.6505592557281374</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.01733953302556818</v>
+        <v>0.3494407442718626</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8999999999999999</v>
+        <v>0.8739130434782608</v>
       </c>
       <c r="G4" t="n">
-        <v>102.4327761627907</v>
+        <v>102.2367557430849</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1810809057289301</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>11.72375948497116</v>
+        <v>9.376465072667605e-05</v>
       </c>
       <c r="J4" t="n">
-        <v>11.20130813953488</v>
+        <v>0.0002344116268166901</v>
       </c>
       <c r="K4" t="n">
-        <v>5582</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>30826</v>
+        <v>1</v>
       </c>
       <c r="M4" t="n">
-        <v>3.036689807305522</v>
+        <v>144888</v>
       </c>
       <c r="N4" t="n">
-        <v>407</v>
+        <v>625</v>
       </c>
       <c r="O4" t="n">
-        <v>9.144715499902679</v>
+        <v>436142</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1" s="3">
@@ -617,43 +617,43 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-0.84375</v>
+        <v>0.9245426829268293</v>
       </c>
       <c r="D5" t="n">
-        <v>0.84375</v>
+        <v>-0.9245426829268293</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.15625</v>
+        <v>0.07545731707317073</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6606666666666667</v>
+        <v>0.6200929152148663</v>
       </c>
       <c r="G5" t="n">
-        <v>82.36536402569592</v>
+        <v>89.42213883677299</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1838370834186734</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>11.01269104552638</v>
+        <v>7.5046904315197e-05</v>
       </c>
       <c r="J5" t="n">
-        <v>9.148019271948607</v>
+        <v>0.0001876172607879925</v>
       </c>
       <c r="K5" t="n">
-        <v>6283</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>34177</v>
+        <v>1</v>
       </c>
       <c r="M5" t="n">
-        <v>3.013605641220704</v>
+        <v>159405</v>
       </c>
       <c r="N5" t="n">
-        <v>457</v>
+        <v>728</v>
       </c>
       <c r="O5" t="n">
-        <v>9.003628170992188</v>
+        <v>476620</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1" s="3">
@@ -666,43 +666,43 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.7906521607078982</v>
+        <v>0.8203753804248266</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.7906521607078982</v>
+        <v>-0.8203753804248266</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2093478392921017</v>
+        <v>0.1796246195751734</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6956810631229234</v>
+        <v>0.6597350230414746</v>
       </c>
       <c r="G6" t="n">
-        <v>78.23710534542045</v>
+        <v>83.60851338277975</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1905670765278033</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>11.02937265160916</v>
+        <v>4.299688272600237e-05</v>
       </c>
       <c r="J6" t="n">
-        <v>8.516723976242575</v>
+        <v>0.0001074922068150059</v>
       </c>
       <c r="K6" t="n">
-        <v>10384</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>54490</v>
+        <v>1</v>
       </c>
       <c r="M6" t="n">
-        <v>3.118535511102955</v>
+        <v>263915</v>
       </c>
       <c r="N6" t="n">
-        <v>676</v>
+        <v>1140</v>
       </c>
       <c r="O6" t="n">
-        <v>9.18629106258029</v>
+        <v>777810</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1" s="3">
@@ -715,43 +715,43 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.8196852463942308</v>
+        <v>0.9153434892134233</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.8196852463942308</v>
+        <v>-0.9153434892134233</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1803147536057692</v>
+        <v>0.0846565107865767</v>
       </c>
       <c r="F7" t="n">
-        <v>0.706533530571992</v>
+        <v>0.5566666666666666</v>
       </c>
       <c r="G7" t="n">
-        <v>98.7172802536551</v>
+        <v>99.12440495080926</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1879925747410929</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>11.84677714853045</v>
+        <v>0.0001269438273563948</v>
       </c>
       <c r="J7" t="n">
-        <v>10.81768539721684</v>
+        <v>0.000317359568390987</v>
       </c>
       <c r="K7" t="n">
-        <v>11545</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>61412</v>
+        <v>1</v>
       </c>
       <c r="M7" t="n">
-        <v>3.088272650296359</v>
+        <v>106217</v>
       </c>
       <c r="N7" t="n">
-        <v>960</v>
+        <v>532</v>
       </c>
       <c r="O7" t="n">
-        <v>9.125545495994269</v>
+        <v>312341</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1" s="3">
@@ -764,43 +764,43 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.963265306122449</v>
+        <v>0.7579861111111111</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.963265306122449</v>
+        <v>-0.7579861111111111</v>
       </c>
       <c r="E8" t="n">
-        <v>0.03673469387755102</v>
+        <v>0.2420138888888889</v>
       </c>
       <c r="F8" t="n">
-        <v>0.6184353741496599</v>
+        <v>0.5933333333333334</v>
       </c>
       <c r="G8" t="n">
-        <v>88.80802977931401</v>
+        <v>99.80932944606414</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1917676924671018</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>11.77642426342749</v>
+        <v>0.0002332361516034986</v>
       </c>
       <c r="J8" t="n">
-        <v>10.26429141185855</v>
+        <v>0.0005830903790087463</v>
       </c>
       <c r="K8" t="n">
-        <v>7403</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>38604</v>
+        <v>1</v>
       </c>
       <c r="M8" t="n">
-        <v>2.859056056367216</v>
+        <v>58422</v>
       </c>
       <c r="N8" t="n">
-        <v>542</v>
+        <v>249</v>
       </c>
       <c r="O8" t="n">
-        <v>8.652134493834836</v>
+        <v>171173</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1" s="3"/>

--- a/static/Output Data Structure.xlsx
+++ b/static/Output Data Structure.xlsx
@@ -612,43 +612,43 @@
         </is>
       </c>
       <c r="C2" s="7" t="n">
-        <v>0.8953874702127571</v>
+        <v>0.9230027834574381</v>
       </c>
       <c r="D2" s="7" t="n">
-        <v>-0.8953874702127571</v>
+        <v>-0.9230027834574381</v>
       </c>
       <c r="E2" s="7" t="n">
-        <v>0.1046125297872429</v>
+        <v>0.07699721654256184</v>
       </c>
       <c r="F2" s="7" t="n">
-        <v>0.7885225885225885</v>
+        <v>0.7938095238095239</v>
       </c>
       <c r="G2" s="7" t="n">
-        <v>97.58431686337268</v>
+        <v>98.02499543878854</v>
       </c>
       <c r="H2" s="7" t="n">
-        <v>0</v>
+        <v>0.2084168336673347</v>
       </c>
       <c r="I2" s="7" t="n">
-        <v>8.001600320064014e-05</v>
+        <v>8.737257181759981</v>
       </c>
       <c r="J2" s="7" t="n">
-        <v>0.0002000400080016003</v>
+        <v>1.001459587666484</v>
       </c>
       <c r="K2" s="5" t="n">
-        <v>0</v>
+        <v>1144</v>
       </c>
       <c r="L2" s="5" t="n">
-        <v>1</v>
+        <v>5489</v>
       </c>
       <c r="M2" s="7" t="n">
-        <v>162668</v>
+        <v>32.61104026234287</v>
       </c>
       <c r="N2" s="5" t="n">
-        <v>752</v>
+        <v>834</v>
       </c>
       <c r="O2" s="7" t="n">
-        <v>487824</v>
+        <v>97.88212789214793</v>
       </c>
       <c r="P2" s="12" t="n"/>
       <c r="Q2" s="12" t="n"/>
@@ -667,43 +667,43 @@
         </is>
       </c>
       <c r="C3" s="7" t="n">
-        <v>0.75312699487199</v>
+        <v>0.7517900563249684</v>
       </c>
       <c r="D3" s="7" t="n">
-        <v>-0.75312699487199</v>
+        <v>-0.7517900563249684</v>
       </c>
       <c r="E3" s="7" t="n">
-        <v>0.24687300512801</v>
+        <v>0.2482099436750315</v>
       </c>
       <c r="F3" s="7" t="n">
-        <v>0.6703957946815089</v>
+        <v>0.6840360750360749</v>
       </c>
       <c r="G3" s="7" t="n">
-        <v>97.90680830516659</v>
+        <v>98.49464244118332</v>
       </c>
       <c r="H3" s="7" t="n">
-        <v>0.1967457627118644</v>
+        <v>0.1958749168330007</v>
       </c>
       <c r="I3" s="7" t="n">
-        <v>8.225938668783607</v>
+        <v>8.185101495122963</v>
       </c>
       <c r="J3" s="7" t="n">
-        <v>0.8902704007725737</v>
+        <v>0.8752620545073375</v>
       </c>
       <c r="K3" s="5" t="n">
-        <v>1451</v>
+        <v>1472</v>
       </c>
       <c r="L3" s="5" t="n">
-        <v>7375</v>
+        <v>7515</v>
       </c>
       <c r="M3" s="7" t="n">
-        <v>37.1304406779661</v>
+        <v>37.93852295409182</v>
       </c>
       <c r="N3" s="5" t="n">
-        <v>1212</v>
+        <v>1266</v>
       </c>
       <c r="O3" s="7" t="n">
-        <v>109.9742372881356</v>
+        <v>112.5316034597472</v>
       </c>
       <c r="P3" s="12" t="n"/>
       <c r="Q3" s="12" t="n"/>
@@ -722,43 +722,43 @@
         </is>
       </c>
       <c r="C4" s="7" t="n">
-        <v>0.6234526200727983</v>
+        <v>0.6011357518620702</v>
       </c>
       <c r="D4" s="7" t="n">
-        <v>-0.6234526200727983</v>
+        <v>-0.6011357518620702</v>
       </c>
       <c r="E4" s="7" t="n">
-        <v>0.3765473799272017</v>
+        <v>0.3988642481379298</v>
       </c>
       <c r="F4" s="7" t="n">
-        <v>0.85</v>
+        <v>0.8358974358974358</v>
       </c>
       <c r="G4" s="7" t="n">
-        <v>103.0866092074837</v>
+        <v>103.5945017182131</v>
       </c>
       <c r="H4" s="7" t="n">
-        <v>0.1848849945235487</v>
+        <v>0.1941973739940703</v>
       </c>
       <c r="I4" s="7" t="n">
-        <v>7.779255151974112</v>
+        <v>8.149702115614843</v>
       </c>
       <c r="J4" s="7" t="n">
-        <v>0.9596384275804078</v>
+        <v>0.9545178896300789</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>844</v>
+        <v>917</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>4565</v>
+        <v>4722</v>
       </c>
       <c r="M4" s="7" t="n">
-        <v>35.65848849945235</v>
+        <v>35.97564591274884</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>703</v>
+        <v>725</v>
       </c>
       <c r="O4" s="7" t="n">
-        <v>107.4223439211391</v>
+        <v>108.5307073274036</v>
       </c>
       <c r="P4" s="12" t="n"/>
       <c r="Q4" s="12" t="n"/>
@@ -777,43 +777,43 @@
         </is>
       </c>
       <c r="C5" s="7" t="n">
-        <v>0.9006944444444445</v>
+        <v>0.8811141304347826</v>
       </c>
       <c r="D5" s="7" t="n">
-        <v>-0.9006944444444445</v>
+        <v>-0.8811141304347826</v>
       </c>
       <c r="E5" s="7" t="n">
-        <v>0.09930555555555555</v>
+        <v>0.1188858695652174</v>
       </c>
       <c r="F5" s="7" t="n">
-        <v>0.6094179894179891</v>
+        <v>0.6070393374741198</v>
       </c>
       <c r="G5" s="7" t="n">
-        <v>91.04988123515439</v>
+        <v>91.7705776468663</v>
       </c>
       <c r="H5" s="7" t="n">
-        <v>0.1980734497290789</v>
+        <v>0.1910522273425499</v>
       </c>
       <c r="I5" s="7" t="n">
-        <v>8.26111240382213</v>
+        <v>7.982982564492376</v>
       </c>
       <c r="J5" s="7" t="n">
-        <v>0.845436036647438</v>
+        <v>0.852233676975945</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>987</v>
+        <v>995</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4983</v>
+        <v>5208</v>
       </c>
       <c r="M5" s="7" t="n">
-        <v>36.0128436684728</v>
+        <v>35.97235023041475</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>798</v>
+        <v>821</v>
       </c>
       <c r="O5" s="7" t="n">
-        <v>107.6957656030504</v>
+        <v>107.6824116743472</v>
       </c>
       <c r="P5" s="12" t="n"/>
       <c r="Q5" s="12" t="n"/>
@@ -832,43 +832,43 @@
         </is>
       </c>
       <c r="C6" s="7" t="n">
-        <v>0.7984734397898345</v>
+        <v>0.7521851244396993</v>
       </c>
       <c r="D6" s="7" t="n">
-        <v>-0.7984734397898345</v>
+        <v>-0.7521851244396993</v>
       </c>
       <c r="E6" s="7" t="n">
-        <v>0.2015265602101654</v>
+        <v>0.2478148755603007</v>
       </c>
       <c r="F6" s="7" t="n">
-        <v>0.6662087912087911</v>
+        <v>0.6855590062111799</v>
       </c>
       <c r="G6" s="7" t="n">
-        <v>85.03141414141415</v>
+        <v>85.65372640591555</v>
       </c>
       <c r="H6" s="7" t="n">
-        <v>0</v>
+        <v>0.1795449158568381</v>
       </c>
       <c r="I6" s="7" t="n">
-        <v>4.040404040404041e-05</v>
+        <v>7.510187371771093</v>
       </c>
       <c r="J6" s="7" t="n">
-        <v>0.000101010101010101</v>
+        <v>0.8209768437439191</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0</v>
+        <v>1515</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>1</v>
+        <v>8438</v>
       </c>
       <c r="M6" s="7" t="n">
-        <v>285389</v>
+        <v>35.3576676937663</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>1231</v>
+        <v>1279</v>
       </c>
       <c r="O6" s="7" t="n">
-        <v>841811</v>
+        <v>104.3314766532354</v>
       </c>
       <c r="P6" s="12" t="n"/>
       <c r="Q6" s="12" t="n"/>
@@ -899,31 +899,31 @@
         <v>0.5777777777777778</v>
       </c>
       <c r="G7" s="7" t="n">
-        <v>99.81316098707403</v>
+        <v>100.9915254237288</v>
       </c>
       <c r="H7" s="7" t="n">
-        <v>0</v>
+        <v>0.1878167115902965</v>
       </c>
       <c r="I7" s="7" t="n">
-        <v>0.0001175088131609871</v>
+        <v>8.495189650052538</v>
       </c>
       <c r="J7" s="7" t="n">
-        <v>0.0002937720329024677</v>
+        <v>2.456302966101695</v>
       </c>
       <c r="K7" s="5" t="n">
-        <v>0</v>
+        <v>1742</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1</v>
+        <v>9275</v>
       </c>
       <c r="M7" s="7" t="n">
-        <v>115325</v>
+        <v>13.94070080862534</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>576</v>
+        <v>651</v>
       </c>
       <c r="O7" s="7" t="n">
-        <v>339764</v>
+        <v>41.11525606469003</v>
       </c>
       <c r="P7" s="12" t="n"/>
       <c r="Q7" s="12" t="n"/>
@@ -942,43 +942,43 @@
         </is>
       </c>
       <c r="C8" s="7" t="n">
-        <v>0.7579861111111111</v>
+        <v>0.7864583333333334</v>
       </c>
       <c r="D8" s="7" t="n">
-        <v>-0.7579861111111111</v>
+        <v>-0.7864583333333334</v>
       </c>
       <c r="E8" s="7" t="n">
-        <v>0.2420138888888889</v>
+        <v>0.2135416666666667</v>
       </c>
       <c r="F8" s="7" t="n">
-        <v>0.5933333333333334</v>
+        <v>0.6117647058823529</v>
       </c>
       <c r="G8" s="7" t="n">
-        <v>96.90325865580448</v>
+        <v>95.9280035335689</v>
       </c>
       <c r="H8" s="7" t="n">
-        <v>0</v>
+        <v>0.2002720163209793</v>
       </c>
       <c r="I8" s="7" t="n">
-        <v>0.0002036659877800407</v>
+        <v>9.050103267680161</v>
       </c>
       <c r="J8" s="7" t="n">
-        <v>0.0005091649694501018</v>
+        <v>2.598056537102473</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0</v>
+        <v>1178</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1</v>
+        <v>5882</v>
       </c>
       <c r="M8" s="7" t="n">
-        <v>64681</v>
+        <v>12.5324719483169</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>286</v>
+        <v>326</v>
       </c>
       <c r="O8" s="7" t="n">
-        <v>190318</v>
+        <v>36.92298537912275</v>
       </c>
       <c r="P8" s="12" t="n"/>
       <c r="Q8" s="12" t="n"/>

--- a/static/Output Data Structure.xlsx
+++ b/static/Output Data Structure.xlsx
@@ -612,43 +612,43 @@
         </is>
       </c>
       <c r="C2" s="7" t="n">
-        <v>0.9230027834574381</v>
+        <v>0.8789560776348262</v>
       </c>
       <c r="D2" s="7" t="n">
-        <v>-0.9230027834574381</v>
+        <v>-0.8789560776348262</v>
       </c>
       <c r="E2" s="7" t="n">
-        <v>0.07699721654256184</v>
+        <v>0.1210439223651738</v>
       </c>
       <c r="F2" s="7" t="n">
-        <v>0.7938095238095239</v>
+        <v>0.8081949058693243</v>
       </c>
       <c r="G2" s="7" t="n">
-        <v>98.02499543878854</v>
+        <v>97.90237000353731</v>
       </c>
       <c r="H2" s="7" t="n">
-        <v>0.2084168336673347</v>
+        <v>0.2041042706600111</v>
       </c>
       <c r="I2" s="7" t="n">
-        <v>8.737257181759981</v>
+        <v>8.419282251939885</v>
       </c>
       <c r="J2" s="7" t="n">
-        <v>1.001459587666484</v>
+        <v>0.6377785638486028</v>
       </c>
       <c r="K2" s="5" t="n">
-        <v>1144</v>
+        <v>736</v>
       </c>
       <c r="L2" s="5" t="n">
-        <v>5489</v>
+        <v>3606</v>
       </c>
       <c r="M2" s="7" t="n">
-        <v>32.61104026234287</v>
+        <v>51.14032168607876</v>
       </c>
       <c r="N2" s="5" t="n">
-        <v>834</v>
+        <v>850</v>
       </c>
       <c r="O2" s="7" t="n">
-        <v>97.88212789214793</v>
+        <v>153.5052689961176</v>
       </c>
       <c r="P2" s="12" t="n"/>
       <c r="Q2" s="12" t="n"/>
@@ -667,43 +667,43 @@
         </is>
       </c>
       <c r="C3" s="7" t="n">
-        <v>0.7517900563249684</v>
+        <v>0.7298794187221922</v>
       </c>
       <c r="D3" s="7" t="n">
-        <v>-0.7517900563249684</v>
+        <v>-0.7298794187221922</v>
       </c>
       <c r="E3" s="7" t="n">
-        <v>0.2482099436750315</v>
+        <v>0.2701205812778078</v>
       </c>
       <c r="F3" s="7" t="n">
-        <v>0.6840360750360749</v>
+        <v>0.6990819762248333</v>
       </c>
       <c r="G3" s="7" t="n">
-        <v>98.49464244118332</v>
+        <v>98.61118690313779</v>
       </c>
       <c r="H3" s="7" t="n">
-        <v>0.1958749168330007</v>
+        <v>0.1884467784286003</v>
       </c>
       <c r="I3" s="7" t="n">
-        <v>8.185101495122963</v>
+        <v>7.763018931596034</v>
       </c>
       <c r="J3" s="7" t="n">
-        <v>0.8752620545073375</v>
+        <v>0.5628694861300592</v>
       </c>
       <c r="K3" s="5" t="n">
-        <v>1472</v>
+        <v>933</v>
       </c>
       <c r="L3" s="5" t="n">
-        <v>7515</v>
+        <v>4951</v>
       </c>
       <c r="M3" s="7" t="n">
-        <v>37.93852295409182</v>
+        <v>59.03958796202787</v>
       </c>
       <c r="N3" s="5" t="n">
-        <v>1266</v>
+        <v>1283</v>
       </c>
       <c r="O3" s="7" t="n">
-        <v>112.5316034597472</v>
+        <v>175.1936982427792</v>
       </c>
       <c r="P3" s="12" t="n"/>
       <c r="Q3" s="12" t="n"/>
@@ -734,31 +734,31 @@
         <v>0.8358974358974358</v>
       </c>
       <c r="G4" s="7" t="n">
-        <v>103.5945017182131</v>
+        <v>103.7305034550839</v>
       </c>
       <c r="H4" s="7" t="n">
-        <v>0.1941973739940703</v>
+        <v>0.1708751297129021</v>
       </c>
       <c r="I4" s="7" t="n">
-        <v>8.149702115614843</v>
+        <v>7.063317133234744</v>
       </c>
       <c r="J4" s="7" t="n">
-        <v>0.9545178896300789</v>
+        <v>0.5707798617966436</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>917</v>
+        <v>494</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>4722</v>
+        <v>2891</v>
       </c>
       <c r="M4" s="7" t="n">
-        <v>35.97564591274884</v>
+        <v>60.19750951227949</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>725</v>
+        <v>739</v>
       </c>
       <c r="O4" s="7" t="n">
-        <v>108.5307073274036</v>
+        <v>181.734693877551</v>
       </c>
       <c r="P4" s="12" t="n"/>
       <c r="Q4" s="12" t="n"/>
@@ -789,31 +789,31 @@
         <v>0.6070393374741198</v>
       </c>
       <c r="G5" s="7" t="n">
-        <v>91.7705776468663</v>
+        <v>92.02275276398014</v>
       </c>
       <c r="H5" s="7" t="n">
-        <v>0.1910522273425499</v>
+        <v>0.1676184077930803</v>
       </c>
       <c r="I5" s="7" t="n">
-        <v>7.982982564492376</v>
+        <v>6.895539067691807</v>
       </c>
       <c r="J5" s="7" t="n">
-        <v>0.852233676975945</v>
+        <v>0.4770068899214869</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>995</v>
+        <v>499</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>5208</v>
+        <v>2977</v>
       </c>
       <c r="M5" s="7" t="n">
-        <v>35.97235023041475</v>
+        <v>64.36446086664428</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>821</v>
+        <v>833</v>
       </c>
       <c r="O5" s="7" t="n">
-        <v>107.6824116743472</v>
+        <v>192.9170305676856</v>
       </c>
       <c r="P5" s="12" t="n"/>
       <c r="Q5" s="12" t="n"/>
@@ -844,31 +844,31 @@
         <v>0.6855590062111799</v>
       </c>
       <c r="G6" s="7" t="n">
-        <v>85.65372640591555</v>
+        <v>86.03647271688411</v>
       </c>
       <c r="H6" s="7" t="n">
-        <v>0.1795449158568381</v>
+        <v>0.1675332177931831</v>
       </c>
       <c r="I6" s="7" t="n">
-        <v>7.510187371771093</v>
+        <v>6.899138444133763</v>
       </c>
       <c r="J6" s="7" t="n">
-        <v>0.8209768437439191</v>
+        <v>0.4945243310160937</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>1515</v>
+        <v>870</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>8438</v>
+        <v>5193</v>
       </c>
       <c r="M6" s="7" t="n">
-        <v>35.3576676937663</v>
+        <v>58.90352397458117</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>1279</v>
+        <v>1302</v>
       </c>
       <c r="O6" s="7" t="n">
-        <v>104.3314766532354</v>
+        <v>173.9782399383786</v>
       </c>
       <c r="P6" s="12" t="n"/>
       <c r="Q6" s="12" t="n"/>
@@ -899,31 +899,31 @@
         <v>0.5777777777777778</v>
       </c>
       <c r="G7" s="7" t="n">
-        <v>100.9915254237288</v>
+        <v>100.8551045510455</v>
       </c>
       <c r="H7" s="7" t="n">
-        <v>0.1878167115902965</v>
+        <v>0.1738862340064745</v>
       </c>
       <c r="I7" s="7" t="n">
-        <v>8.495189650052538</v>
+        <v>7.593776543530812</v>
       </c>
       <c r="J7" s="7" t="n">
-        <v>2.456302966101695</v>
+        <v>1.595817958179582</v>
       </c>
       <c r="K7" s="5" t="n">
-        <v>1742</v>
+        <v>1128</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>9275</v>
+        <v>6487</v>
       </c>
       <c r="M7" s="7" t="n">
-        <v>13.94070080862534</v>
+        <v>21.42577462617543</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>651</v>
+        <v>692</v>
       </c>
       <c r="O7" s="7" t="n">
-        <v>41.11525606469003</v>
+        <v>63.19963002928935</v>
       </c>
       <c r="P7" s="12" t="n"/>
       <c r="Q7" s="12" t="n"/>
@@ -942,43 +942,43 @@
         </is>
       </c>
       <c r="C8" s="7" t="n">
-        <v>0.7864583333333334</v>
+        <v>0.7036732456140351</v>
       </c>
       <c r="D8" s="7" t="n">
-        <v>-0.7864583333333334</v>
+        <v>-0.7036732456140351</v>
       </c>
       <c r="E8" s="7" t="n">
-        <v>0.2135416666666667</v>
+        <v>0.2963267543859649</v>
       </c>
       <c r="F8" s="7" t="n">
-        <v>0.6117647058823529</v>
+        <v>0.6263157894736842</v>
       </c>
       <c r="G8" s="7" t="n">
-        <v>95.9280035335689</v>
+        <v>96.70049710024855</v>
       </c>
       <c r="H8" s="7" t="n">
-        <v>0.2002720163209793</v>
+        <v>0.1914722445695897</v>
       </c>
       <c r="I8" s="7" t="n">
-        <v>9.050103267680161</v>
+        <v>8.276785391731392</v>
       </c>
       <c r="J8" s="7" t="n">
-        <v>2.598056537102473</v>
+        <v>1.544739022369511</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>1178</v>
+        <v>714</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>5882</v>
+        <v>3729</v>
       </c>
       <c r="M8" s="7" t="n">
-        <v>12.5324719483169</v>
+        <v>21.25529632609279</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>326</v>
+        <v>348</v>
       </c>
       <c r="O8" s="7" t="n">
-        <v>36.92298537912275</v>
+        <v>62.59989273263609</v>
       </c>
       <c r="P8" s="12" t="n"/>
       <c r="Q8" s="12" t="n"/>

--- a/static/Output Data Structure.xlsx
+++ b/static/Output Data Structure.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -612,43 +612,43 @@
         </is>
       </c>
       <c r="C2" s="7" t="n">
-        <v>0.8789560776348262</v>
+        <v>0.8530544612718665</v>
       </c>
       <c r="D2" s="7" t="n">
-        <v>-0.8789560776348262</v>
+        <v>-0.8530544612718665</v>
       </c>
       <c r="E2" s="7" t="n">
-        <v>0.1210439223651738</v>
+        <v>0.1469455387281335</v>
       </c>
       <c r="F2" s="7" t="n">
-        <v>0.8081949058693243</v>
+        <v>0.7902691511387162</v>
       </c>
       <c r="G2" s="7" t="n">
-        <v>97.90237000353731</v>
+        <v>97.80543293718166</v>
       </c>
       <c r="H2" s="7" t="n">
-        <v>0.2041042706600111</v>
+        <v>0.2136209813874788</v>
       </c>
       <c r="I2" s="7" t="n">
-        <v>8.419282251939885</v>
+        <v>8.705382549217321</v>
       </c>
       <c r="J2" s="7" t="n">
-        <v>0.6377785638486028</v>
+        <v>0.4013582342954159</v>
       </c>
       <c r="K2" s="5" t="n">
-        <v>736</v>
+        <v>505</v>
       </c>
       <c r="L2" s="5" t="n">
-        <v>3606</v>
+        <v>2364</v>
       </c>
       <c r="M2" s="7" t="n">
-        <v>51.14032168607876</v>
+        <v>81.26395939086295</v>
       </c>
       <c r="N2" s="5" t="n">
-        <v>850</v>
+        <v>892</v>
       </c>
       <c r="O2" s="7" t="n">
-        <v>153.5052689961176</v>
+        <v>243.6861252115059</v>
       </c>
       <c r="P2" s="12" t="n"/>
       <c r="Q2" s="12" t="n"/>
@@ -667,43 +667,43 @@
         </is>
       </c>
       <c r="C3" s="7" t="n">
-        <v>0.7298794187221922</v>
+        <v>0.7027400133257289</v>
       </c>
       <c r="D3" s="7" t="n">
-        <v>-0.7298794187221922</v>
+        <v>-0.7027400133257289</v>
       </c>
       <c r="E3" s="7" t="n">
-        <v>0.2701205812778078</v>
+        <v>0.2972599866742711</v>
       </c>
       <c r="F3" s="7" t="n">
-        <v>0.6990819762248333</v>
+        <v>0.6976085530630984</v>
       </c>
       <c r="G3" s="7" t="n">
-        <v>98.61118690313779</v>
+        <v>98.96043956043955</v>
       </c>
       <c r="H3" s="7" t="n">
-        <v>0.1884467784286003</v>
+        <v>0.2044973544973545</v>
       </c>
       <c r="I3" s="7" t="n">
-        <v>7.763018931596034</v>
+        <v>8.346048026048026</v>
       </c>
       <c r="J3" s="7" t="n">
-        <v>0.5628694861300592</v>
+        <v>0.4153846153846154</v>
       </c>
       <c r="K3" s="5" t="n">
-        <v>933</v>
+        <v>773</v>
       </c>
       <c r="L3" s="5" t="n">
-        <v>4951</v>
+        <v>3780</v>
       </c>
       <c r="M3" s="7" t="n">
-        <v>59.03958796202787</v>
+        <v>80.3425925925926</v>
       </c>
       <c r="N3" s="5" t="n">
-        <v>1283</v>
+        <v>1336</v>
       </c>
       <c r="O3" s="7" t="n">
-        <v>175.1936982427792</v>
+        <v>238.2380952380952</v>
       </c>
       <c r="P3" s="12" t="n"/>
       <c r="Q3" s="12" t="n"/>
@@ -722,43 +722,43 @@
         </is>
       </c>
       <c r="C4" s="7" t="n">
-        <v>0.6011357518620702</v>
+        <v>0.6497176870456073</v>
       </c>
       <c r="D4" s="7" t="n">
-        <v>-0.6011357518620702</v>
+        <v>-0.6497176870456073</v>
       </c>
       <c r="E4" s="7" t="n">
-        <v>0.3988642481379298</v>
+        <v>0.3502823129543927</v>
       </c>
       <c r="F4" s="7" t="n">
-        <v>0.8358974358974358</v>
+        <v>0.8478494623655912</v>
       </c>
       <c r="G4" s="7" t="n">
-        <v>103.7305034550839</v>
+        <v>103.7194820034279</v>
       </c>
       <c r="H4" s="7" t="n">
-        <v>0.1708751297129021</v>
+        <v>0.1904287138584247</v>
       </c>
       <c r="I4" s="7" t="n">
-        <v>7.063317133234744</v>
+        <v>7.769957543101033</v>
       </c>
       <c r="J4" s="7" t="n">
-        <v>0.5707798617966436</v>
+        <v>0.3820224719101123</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>494</v>
+        <v>382</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2891</v>
+        <v>2006</v>
       </c>
       <c r="M4" s="7" t="n">
-        <v>60.19750951227949</v>
+        <v>90</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>739</v>
+        <v>771</v>
       </c>
       <c r="O4" s="7" t="n">
-        <v>181.734693877551</v>
+        <v>271.5009970089731</v>
       </c>
       <c r="P4" s="12" t="n"/>
       <c r="Q4" s="12" t="n"/>
@@ -777,43 +777,43 @@
         </is>
       </c>
       <c r="C5" s="7" t="n">
-        <v>0.8811141304347826</v>
+        <v>0.8623670212765957</v>
       </c>
       <c r="D5" s="7" t="n">
-        <v>-0.8811141304347826</v>
+        <v>-0.8623670212765957</v>
       </c>
       <c r="E5" s="7" t="n">
-        <v>0.1188858695652174</v>
+        <v>0.1376329787234042</v>
       </c>
       <c r="F5" s="7" t="n">
-        <v>0.6070393374741198</v>
+        <v>0.6100810536980746</v>
       </c>
       <c r="G5" s="7" t="n">
-        <v>92.02275276398014</v>
+        <v>92.8213619402985</v>
       </c>
       <c r="H5" s="7" t="n">
-        <v>0.1676184077930803</v>
+        <v>0.2214432989690722</v>
       </c>
       <c r="I5" s="7" t="n">
-        <v>6.895539067691807</v>
+        <v>9.008540416474331</v>
       </c>
       <c r="J5" s="7" t="n">
-        <v>0.4770068899214869</v>
+        <v>0.3770211442786069</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>499</v>
+        <v>537</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>2977</v>
+        <v>2425</v>
       </c>
       <c r="M5" s="7" t="n">
-        <v>64.36446086664428</v>
+        <v>82.24948453608248</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>833</v>
+        <v>867</v>
       </c>
       <c r="O5" s="7" t="n">
-        <v>192.9170305676856</v>
+        <v>246.1967010309278</v>
       </c>
       <c r="P5" s="12" t="n"/>
       <c r="Q5" s="12" t="n"/>
@@ -844,31 +844,31 @@
         <v>0.6855590062111799</v>
       </c>
       <c r="G6" s="7" t="n">
-        <v>86.03647271688411</v>
+        <v>86.63237324008466</v>
       </c>
       <c r="H6" s="7" t="n">
-        <v>0.1675332177931831</v>
+        <v>0.1926582902192658</v>
       </c>
       <c r="I6" s="7" t="n">
-        <v>6.899138444133763</v>
+        <v>7.855738068695176</v>
       </c>
       <c r="J6" s="7" t="n">
-        <v>0.4945243310160937</v>
+        <v>0.3735161498113555</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>870</v>
+        <v>782</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>5193</v>
+        <v>4059</v>
       </c>
       <c r="M6" s="7" t="n">
-        <v>58.90352397458117</v>
+        <v>78.62379896526238</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>1302</v>
+        <v>1379</v>
       </c>
       <c r="O6" s="7" t="n">
-        <v>173.9782399383786</v>
+        <v>231.9374230105937</v>
       </c>
       <c r="P6" s="12" t="n"/>
       <c r="Q6" s="12" t="n"/>
@@ -899,31 +899,31 @@
         <v>0.5777777777777778</v>
       </c>
       <c r="G7" s="7" t="n">
-        <v>100.8551045510455</v>
+        <v>103.7834132967786</v>
       </c>
       <c r="H7" s="7" t="n">
-        <v>0.1738862340064745</v>
+        <v>0.2173634812286689</v>
       </c>
       <c r="I7" s="7" t="n">
-        <v>7.593776543530812</v>
+        <v>9.122960542269901</v>
       </c>
       <c r="J7" s="7" t="n">
-        <v>1.595817958179582</v>
+        <v>1.071053232807859</v>
       </c>
       <c r="K7" s="5" t="n">
-        <v>1128</v>
+        <v>1019</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>6487</v>
+        <v>4688</v>
       </c>
       <c r="M7" s="7" t="n">
-        <v>21.42577462617543</v>
+        <v>32.92043515358362</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>692</v>
+        <v>746</v>
       </c>
       <c r="O7" s="7" t="n">
-        <v>63.19963002928935</v>
+        <v>96.89846416382252</v>
       </c>
       <c r="P7" s="12" t="n"/>
       <c r="Q7" s="12" t="n"/>
@@ -942,43 +942,43 @@
         </is>
       </c>
       <c r="C8" s="7" t="n">
-        <v>0.7036732456140351</v>
+        <v>0.636656746031746</v>
       </c>
       <c r="D8" s="7" t="n">
-        <v>-0.7036732456140351</v>
+        <v>-0.636656746031746</v>
       </c>
       <c r="E8" s="7" t="n">
-        <v>0.2963267543859649</v>
+        <v>0.3633432539682539</v>
       </c>
       <c r="F8" s="7" t="n">
-        <v>0.6263157894736842</v>
+        <v>0.6031746031746031</v>
       </c>
       <c r="G8" s="7" t="n">
-        <v>96.70049710024855</v>
+        <v>97.39076107535024</v>
       </c>
       <c r="H8" s="7" t="n">
-        <v>0.1914722445695897</v>
+        <v>0.2137954701441318</v>
       </c>
       <c r="I8" s="7" t="n">
-        <v>8.276785391731392</v>
+        <v>8.993166780017448</v>
       </c>
       <c r="J8" s="7" t="n">
-        <v>1.544739022369511</v>
+        <v>1.103369935630443</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>714</v>
+        <v>623</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>3729</v>
+        <v>2914</v>
       </c>
       <c r="M8" s="7" t="n">
-        <v>21.25529632609279</v>
+        <v>30.01372683596431</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>348</v>
+        <v>386</v>
       </c>
       <c r="O8" s="7" t="n">
-        <v>62.59989273263609</v>
+        <v>88.26664378860673</v>
       </c>
       <c r="P8" s="12" t="n"/>
       <c r="Q8" s="12" t="n"/>

--- a/static/Output Data Structure.xlsx
+++ b/static/Output Data Structure.xlsx
@@ -612,43 +612,43 @@
         </is>
       </c>
       <c r="C2" s="7" t="n">
-        <v>0.8530544612718665</v>
+        <v>0.8620511269082829</v>
       </c>
       <c r="D2" s="7" t="n">
-        <v>-0.8530544612718665</v>
+        <v>-0.8620511269082829</v>
       </c>
       <c r="E2" s="7" t="n">
-        <v>0.1469455387281335</v>
+        <v>0.1379488730917172</v>
       </c>
       <c r="F2" s="7" t="n">
-        <v>0.7902691511387162</v>
+        <v>0.8031098153547133</v>
       </c>
       <c r="G2" s="7" t="n">
-        <v>97.80543293718166</v>
+        <v>97.72998014559894</v>
       </c>
       <c r="H2" s="7" t="n">
-        <v>0.2136209813874788</v>
+        <v>0.1727354799879627</v>
       </c>
       <c r="I2" s="7" t="n">
-        <v>8.705382549217321</v>
+        <v>7.129339781914272</v>
       </c>
       <c r="J2" s="7" t="n">
-        <v>0.4013582342954159</v>
+        <v>0.549801455989411</v>
       </c>
       <c r="K2" s="5" t="n">
-        <v>505</v>
+        <v>574</v>
       </c>
       <c r="L2" s="5" t="n">
-        <v>2364</v>
+        <v>3323</v>
       </c>
       <c r="M2" s="7" t="n">
-        <v>81.26395939086295</v>
+        <v>59.28678904604273</v>
       </c>
       <c r="N2" s="5" t="n">
-        <v>892</v>
+        <v>917</v>
       </c>
       <c r="O2" s="7" t="n">
-        <v>243.6861252115059</v>
+        <v>177.7550406259404</v>
       </c>
       <c r="P2" s="12" t="n"/>
       <c r="Q2" s="12" t="n"/>
@@ -667,43 +667,43 @@
         </is>
       </c>
       <c r="C3" s="7" t="n">
-        <v>0.7027400133257289</v>
+        <v>0.7408947188161487</v>
       </c>
       <c r="D3" s="7" t="n">
-        <v>-0.7027400133257289</v>
+        <v>-0.7408947188161487</v>
       </c>
       <c r="E3" s="7" t="n">
-        <v>0.2972599866742711</v>
+        <v>0.2591052811838513</v>
       </c>
       <c r="F3" s="7" t="n">
-        <v>0.6976085530630984</v>
+        <v>0.7065024191494779</v>
       </c>
       <c r="G3" s="7" t="n">
-        <v>98.96043956043955</v>
+        <v>99.30251104644897</v>
       </c>
       <c r="H3" s="7" t="n">
-        <v>0.2044973544973545</v>
+        <v>0.1946695095948827</v>
       </c>
       <c r="I3" s="7" t="n">
-        <v>8.346048026048026</v>
+        <v>7.98895734251931</v>
       </c>
       <c r="J3" s="7" t="n">
-        <v>0.4153846153846154</v>
+        <v>0.505442396810001</v>
       </c>
       <c r="K3" s="5" t="n">
-        <v>773</v>
+        <v>913</v>
       </c>
       <c r="L3" s="5" t="n">
-        <v>3780</v>
+        <v>4690</v>
       </c>
       <c r="M3" s="7" t="n">
-        <v>80.3425925925926</v>
+        <v>66.23837953091684</v>
       </c>
       <c r="N3" s="5" t="n">
-        <v>1336</v>
+        <v>1366</v>
       </c>
       <c r="O3" s="7" t="n">
-        <v>238.2380952380952</v>
+        <v>196.4665245202559</v>
       </c>
       <c r="P3" s="12" t="n"/>
       <c r="Q3" s="12" t="n"/>
@@ -722,43 +722,43 @@
         </is>
       </c>
       <c r="C4" s="7" t="n">
-        <v>0.6497176870456073</v>
+        <v>0.7182010643834948</v>
       </c>
       <c r="D4" s="7" t="n">
-        <v>-0.6497176870456073</v>
+        <v>-0.7182010643834948</v>
       </c>
       <c r="E4" s="7" t="n">
-        <v>0.3502823129543927</v>
+        <v>0.2817989356165051</v>
       </c>
       <c r="F4" s="7" t="n">
-        <v>0.8478494623655912</v>
+        <v>0.831862745098039</v>
       </c>
       <c r="G4" s="7" t="n">
-        <v>103.7194820034279</v>
+        <v>104.6982370592648</v>
       </c>
       <c r="H4" s="7" t="n">
-        <v>0.1904287138584247</v>
+        <v>0.1955922865013774</v>
       </c>
       <c r="I4" s="7" t="n">
-        <v>7.769957543101033</v>
+        <v>8.041545923671</v>
       </c>
       <c r="J4" s="7" t="n">
-        <v>0.3820224719101123</v>
+        <v>0.5446361590397599</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>382</v>
+        <v>568</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2006</v>
+        <v>2904</v>
       </c>
       <c r="M4" s="7" t="n">
-        <v>90</v>
+        <v>63.71108815426997</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>771</v>
+        <v>787</v>
       </c>
       <c r="O4" s="7" t="n">
-        <v>271.5009970089731</v>
+        <v>192.2351928374656</v>
       </c>
       <c r="P4" s="12" t="n"/>
       <c r="Q4" s="12" t="n"/>
@@ -777,43 +777,43 @@
         </is>
       </c>
       <c r="C5" s="7" t="n">
-        <v>0.8623670212765957</v>
+        <v>0.910625</v>
       </c>
       <c r="D5" s="7" t="n">
-        <v>-0.8623670212765957</v>
+        <v>-0.910625</v>
       </c>
       <c r="E5" s="7" t="n">
-        <v>0.1376329787234042</v>
+        <v>0.089375</v>
       </c>
       <c r="F5" s="7" t="n">
-        <v>0.6100810536980746</v>
+        <v>0.6134761904761903</v>
       </c>
       <c r="G5" s="7" t="n">
-        <v>92.8213619402985</v>
+        <v>93.13028919330289</v>
       </c>
       <c r="H5" s="7" t="n">
-        <v>0.2214432989690722</v>
+        <v>0.1842105263157895</v>
       </c>
       <c r="I5" s="7" t="n">
-        <v>9.008540416474331</v>
+        <v>7.562758952174957</v>
       </c>
       <c r="J5" s="7" t="n">
-        <v>0.3770211442786069</v>
+        <v>0.4858447488584475</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>537</v>
+        <v>588</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>2425</v>
+        <v>3192</v>
       </c>
       <c r="M5" s="7" t="n">
-        <v>82.24948453608248</v>
+        <v>64.03070175438596</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>867</v>
+        <v>882</v>
       </c>
       <c r="O5" s="7" t="n">
-        <v>246.1967010309278</v>
+        <v>191.687343358396</v>
       </c>
       <c r="P5" s="12" t="n"/>
       <c r="Q5" s="12" t="n"/>
@@ -832,43 +832,43 @@
         </is>
       </c>
       <c r="C6" s="7" t="n">
-        <v>0.7521851244396993</v>
+        <v>0.7414396226619893</v>
       </c>
       <c r="D6" s="7" t="n">
-        <v>-0.7521851244396993</v>
+        <v>-0.7414396226619893</v>
       </c>
       <c r="E6" s="7" t="n">
-        <v>0.2478148755603007</v>
+        <v>0.2585603773380107</v>
       </c>
       <c r="F6" s="7" t="n">
-        <v>0.6855590062111799</v>
+        <v>0.6829081632653059</v>
       </c>
       <c r="G6" s="7" t="n">
-        <v>86.63237324008466</v>
+        <v>86.74108429394812</v>
       </c>
       <c r="H6" s="7" t="n">
-        <v>0.1926582902192658</v>
+        <v>0.1734055856606919</v>
       </c>
       <c r="I6" s="7" t="n">
-        <v>7.855738068695176</v>
+        <v>7.109062043142377</v>
       </c>
       <c r="J6" s="7" t="n">
-        <v>0.3735161498113555</v>
+        <v>0.4320965417867435</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>782</v>
+        <v>832</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>4059</v>
+        <v>4798</v>
       </c>
       <c r="M6" s="7" t="n">
-        <v>78.62379896526238</v>
+        <v>68.05648186744477</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>1379</v>
+        <v>1403</v>
       </c>
       <c r="O6" s="7" t="n">
-        <v>231.9374230105937</v>
+        <v>200.7446852855356</v>
       </c>
       <c r="P6" s="12" t="n"/>
       <c r="Q6" s="12" t="n"/>
@@ -887,43 +887,43 @@
         </is>
       </c>
       <c r="C7" s="7" t="n">
-        <v>0.8717557040127841</v>
+        <v>0.9230395356485667</v>
       </c>
       <c r="D7" s="7" t="n">
-        <v>-0.8717557040127841</v>
+        <v>-0.9230395356485667</v>
       </c>
       <c r="E7" s="7" t="n">
-        <v>0.1282442959872159</v>
+        <v>0.07696046435143336</v>
       </c>
       <c r="F7" s="7" t="n">
-        <v>0.5777777777777778</v>
+        <v>0.596969696969697</v>
       </c>
       <c r="G7" s="7" t="n">
-        <v>103.7834132967786</v>
+        <v>103.5202600216685</v>
       </c>
       <c r="H7" s="7" t="n">
-        <v>0.2173634812286689</v>
+        <v>0.1936405178979436</v>
       </c>
       <c r="I7" s="7" t="n">
-        <v>9.122960542269901</v>
+        <v>8.200831983523379</v>
       </c>
       <c r="J7" s="7" t="n">
-        <v>1.071053232807859</v>
+        <v>1.138028169014085</v>
       </c>
       <c r="K7" s="5" t="n">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>4688</v>
+        <v>5252</v>
       </c>
       <c r="M7" s="7" t="n">
-        <v>32.92043515358362</v>
+        <v>30.91203351104341</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>746</v>
+        <v>785</v>
       </c>
       <c r="O7" s="7" t="n">
-        <v>96.89846416382252</v>
+        <v>90.96458492003046</v>
       </c>
       <c r="P7" s="12" t="n"/>
       <c r="Q7" s="12" t="n"/>
@@ -942,43 +942,43 @@
         </is>
       </c>
       <c r="C8" s="7" t="n">
-        <v>0.636656746031746</v>
+        <v>0.6654079861111111</v>
       </c>
       <c r="D8" s="7" t="n">
-        <v>-0.636656746031746</v>
+        <v>-0.6654079861111111</v>
       </c>
       <c r="E8" s="7" t="n">
-        <v>0.3633432539682539</v>
+        <v>0.3345920138888889</v>
       </c>
       <c r="F8" s="7" t="n">
-        <v>0.6031746031746031</v>
+        <v>0.6277777777777778</v>
       </c>
       <c r="G8" s="7" t="n">
-        <v>97.39076107535024</v>
+        <v>97.09607912398445</v>
       </c>
       <c r="H8" s="7" t="n">
-        <v>0.2137954701441318</v>
+        <v>0.2024114930733709</v>
       </c>
       <c r="I8" s="7" t="n">
-        <v>8.993166780017448</v>
+        <v>8.647219171892806</v>
       </c>
       <c r="J8" s="7" t="n">
-        <v>1.103369935630443</v>
+        <v>1.376898622394914</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>623</v>
+        <v>789</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>2914</v>
+        <v>3898</v>
       </c>
       <c r="M8" s="7" t="n">
-        <v>30.01372683596431</v>
+        <v>24.00102616726526</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>386</v>
+        <v>425</v>
       </c>
       <c r="O8" s="7" t="n">
-        <v>88.26664378860673</v>
+        <v>70.51795792714212</v>
       </c>
       <c r="P8" s="12" t="n"/>
       <c r="Q8" s="12" t="n"/>
